--- a/data/Community_Metadata.xlsx
+++ b/data/Community_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/projects/narc/science/Feasibility/De_Laender_et_al_feasibility/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699EEB4D-B226-7B42-9E3C-DA8158A35C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FAFB2-DBB6-CA49-B2EA-A7CF39ED6C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="4240" windowWidth="21600" windowHeight="11240" xr2:uid="{1873DC0F-7CA4-4627-B5C9-EC0FA39DF1AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Variable</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Variable Code/Notes</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -116,15 +113,6 @@
     <t>Five year time span in which location was sampled</t>
   </si>
   <si>
-    <t>2000-2005; 2005-2010;2010-2015; 2015-2020</t>
-  </si>
-  <si>
-    <t>high; low</t>
-  </si>
-  <si>
-    <t>Classification of sampling location environmental stress, based on water chemistry variables</t>
-  </si>
-  <si>
     <t>Amount of N as Ammonia (mg/L)</t>
   </si>
   <si>
@@ -156,6 +144,9 @@
   </si>
   <si>
     <t>Genera with 0/1 absence/presence indicating community composition for given location</t>
+  </si>
+  <si>
+    <t>Classification of sampling location environmental stress, based on land use.</t>
   </si>
 </sst>
 </file>
@@ -517,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E258F3-EEC9-486A-AF5A-64D448A7D4AC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,7 +520,7 @@
     <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,179 +530,170 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
